--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H2">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.32975033333333</v>
+        <v>29.80827733333334</v>
       </c>
       <c r="N2">
-        <v>48.989251</v>
+        <v>89.42483200000001</v>
       </c>
       <c r="O2">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940222</v>
       </c>
       <c r="P2">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940221</v>
       </c>
       <c r="Q2">
-        <v>1615.220953186676</v>
+        <v>1070.325188234176</v>
       </c>
       <c r="R2">
-        <v>14536.98857868008</v>
+        <v>9632.926694107584</v>
       </c>
       <c r="S2">
-        <v>0.277617909265453</v>
+        <v>0.2972304497777762</v>
       </c>
       <c r="T2">
-        <v>0.277617909265453</v>
+        <v>0.2972304497777761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H3">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>80.453003</v>
       </c>
       <c r="O3">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="P3">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="Q3">
-        <v>2652.60998157311</v>
+        <v>962.9414297359789</v>
       </c>
       <c r="R3">
-        <v>23873.48983415799</v>
+        <v>8666.47286762381</v>
       </c>
       <c r="S3">
-        <v>0.4559203096815507</v>
+        <v>0.2674098651665656</v>
       </c>
       <c r="T3">
-        <v>0.4559203096815507</v>
+        <v>0.2674098651665655</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H4">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.620050333333333</v>
+        <v>4.620050333333332</v>
       </c>
       <c r="N4">
         <v>13.860151</v>
       </c>
       <c r="O4">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="P4">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="Q4">
-        <v>456.9820083497757</v>
+        <v>165.892050297943</v>
       </c>
       <c r="R4">
-        <v>4112.838075147981</v>
+        <v>1493.028452681487</v>
       </c>
       <c r="S4">
-        <v>0.07854429419064761</v>
+        <v>0.04606839983459956</v>
       </c>
       <c r="T4">
-        <v>0.07854429419064761</v>
+        <v>0.04606839983459955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.32975033333333</v>
+        <v>29.80827733333334</v>
       </c>
       <c r="N5">
-        <v>48.989251</v>
+        <v>89.42483200000001</v>
       </c>
       <c r="O5">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940222</v>
       </c>
       <c r="P5">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940221</v>
       </c>
       <c r="Q5">
-        <v>278.3997516738743</v>
+        <v>508.1900725993531</v>
       </c>
       <c r="R5">
-        <v>2505.597765064868</v>
+        <v>4573.710653394177</v>
       </c>
       <c r="S5">
-        <v>0.04785026893518127</v>
+        <v>0.1411249268089338</v>
       </c>
       <c r="T5">
-        <v>0.04785026893518127</v>
+        <v>0.1411249268089338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>80.453003</v>
       </c>
       <c r="O6">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="P6">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="Q6">
         <v>457.2042968490672</v>
@@ -818,10 +818,10 @@
         <v>4114.838671641604</v>
       </c>
       <c r="S6">
-        <v>0.07858250027527355</v>
+        <v>0.1269661223398657</v>
       </c>
       <c r="T6">
-        <v>0.07858250027527355</v>
+        <v>0.1269661223398656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.620050333333333</v>
+        <v>4.620050333333332</v>
       </c>
       <c r="N7">
         <v>13.860151</v>
       </c>
       <c r="O7">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="P7">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="Q7">
-        <v>78.76549483400757</v>
+        <v>78.76549483400755</v>
       </c>
       <c r="R7">
-        <v>708.8894535060681</v>
+        <v>708.889453506068</v>
       </c>
       <c r="S7">
-        <v>0.01353790758777311</v>
+        <v>0.02187326217661522</v>
       </c>
       <c r="T7">
-        <v>0.01353790758777311</v>
+        <v>0.02187326217661522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J8">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.32975033333333</v>
+        <v>29.80827733333334</v>
       </c>
       <c r="N8">
-        <v>48.989251</v>
+        <v>89.42483200000001</v>
       </c>
       <c r="O8">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940222</v>
       </c>
       <c r="P8">
-        <v>0.3418592381614251</v>
+        <v>0.4866975737940221</v>
       </c>
       <c r="Q8">
-        <v>95.36554598966268</v>
+        <v>174.0799819273387</v>
       </c>
       <c r="R8">
-        <v>858.289913906964</v>
+        <v>1566.719837346048</v>
       </c>
       <c r="S8">
-        <v>0.01639105996079085</v>
+        <v>0.04834219720731215</v>
       </c>
       <c r="T8">
-        <v>0.01639105996079085</v>
+        <v>0.04834219720731214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J9">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>80.453003</v>
       </c>
       <c r="O9">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="P9">
-        <v>0.5614211638667195</v>
+        <v>0.437868100938039</v>
       </c>
       <c r="Q9">
         <v>156.6148573613214</v>
@@ -1004,10 +1004,10 @@
         <v>1409.533716251892</v>
       </c>
       <c r="S9">
-        <v>0.02691835390989518</v>
+        <v>0.04349211343160785</v>
       </c>
       <c r="T9">
-        <v>0.02691835390989518</v>
+        <v>0.04349211343160784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J10">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.620050333333333</v>
+        <v>4.620050333333332</v>
       </c>
       <c r="N10">
         <v>13.860151</v>
       </c>
       <c r="O10">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="P10">
-        <v>0.09671959797185539</v>
+        <v>0.07543432526793886</v>
       </c>
       <c r="Q10">
         <v>26.98103850606267</v>
@@ -1066,10 +1066,10 @@
         <v>242.829346554564</v>
       </c>
       <c r="S10">
-        <v>0.004637396193434664</v>
+        <v>0.007492663256724088</v>
       </c>
       <c r="T10">
-        <v>0.004637396193434663</v>
+        <v>0.007492663256724087</v>
       </c>
     </row>
   </sheetData>
